--- a/biology/Botanique/Superasteridae/Superasteridae.xlsx
+++ b/biology/Botanique/Superasteridae/Superasteridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Superastéridées
-Les superastéridées (Superasteridae, en anglais : superasterids) sont un clade important de plantes à fleurs, regroupant plus de 122 000 espèces, réparties en 146 familles dans 20 ordres selon la classification phylogénétique APG IV (2016)[1]. Le nom de « superastéridées » est construit à partir du nom « astéridées », des Asteridae, une sous-classe de plantes.
+Les superastéridées (Superasteridae, en anglais : superasterids) sont un clade important de plantes à fleurs, regroupant plus de 122 000 espèces, réparties en 146 familles dans 20 ordres selon la classification phylogénétique APG IV (2016). Le nom de « superastéridées » est construit à partir du nom « astéridées », des Asteridae, une sous-classe de plantes.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce clade a été introduit par la classification phylogénétique APG IV (2016)[1] sous le nom informel anglais de superasterids. Le nom scientifique Superasteridae a été publié en 2011 par les botanistes américains Walter Stephen Judd (en), Douglas E. Soltis (en) et Pamela S. Soltis (en)[2].
-Les astéridées, les Berberidopsidales, les Santalales et les Caryophyllales forme le clade des Superasteridae[3]. C'est l'un des trois groupes qui composent les Pentapetalae (noyau des dicotylédones vraies sauf les Gunnerales)[4], les deux autres étant les Dilleniales et les Superrosidae (Saxifragales et rosidées)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce clade a été introduit par la classification phylogénétique APG IV (2016) sous le nom informel anglais de superasterids. Le nom scientifique Superasteridae a été publié en 2011 par les botanistes américains Walter Stephen Judd (en), Douglas E. Soltis (en) et Pamela S. Soltis (en).
+Les astéridées, les Berberidopsidales, les Santalales et les Caryophyllales forme le clade des Superasteridae. C'est l'un des trois groupes qui composent les Pentapetalae (noyau des dicotylédones vraies sauf les Gunnerales), les deux autres étant les Dilleniales et les Superrosidae (Saxifragales et rosidées).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'Angiosperm Phylogeny Website[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'Angiosperm Phylogeny Website :
 </t>
         </is>
       </c>
